--- a/data/template/Project_information_maintenance.xlsx
+++ b/data/template/Project_information_maintenance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F0E45A-B691-4A83-BF55-BEA187151417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB19BFBC-4762-42EB-95FD-621A14E991FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息维护表" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="286">
   <si>
     <t>项目种类</t>
   </si>
@@ -1002,6 +1002,14 @@
   </si>
   <si>
     <t>项目计划结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务来源分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,31 +1450,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="13" customWidth="1"/>
-    <col min="3" max="6" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.19921875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.86328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.86328125" style="14" customWidth="1"/>
-    <col min="12" max="17" width="11.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="13" customWidth="1"/>
-    <col min="19" max="20" width="10.46484375" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.796875" style="15" customWidth="1"/>
+    <col min="2" max="4" width="11.77734375" style="13" customWidth="1"/>
+    <col min="5" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.21875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="14" customWidth="1"/>
+    <col min="14" max="19" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="13" customWidth="1"/>
+    <col min="21" max="22" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.77734375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -1474,110 +1482,122 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{3D5A5456-1688-4E34-935D-50201CED8343}">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3D5A5456-1688-4E34-935D-50201CED8343}">
       <formula1>基础技术和平台</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{50FCBB9A-DA15-495D-9594-0188D4753073}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{50FCBB9A-DA15-495D-9594-0188D4753073}">
       <formula1>INDIRECT(INDIRECT("C"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C7E2813E-7BAC-470F-AA8F-AECC879A14DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{C7E2813E-7BAC-470F-AA8F-AECC879A14DE}">
       <formula1>INDIRECT(INDIRECT("D"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{79D616EB-4B2B-4D46-A1A1-394A93FADF1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{79D616EB-4B2B-4D46-A1A1-394A93FADF1C}">
       <formula1>INDIRECT(INDIRECT("E"&amp;ROW()))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{7587856A-9344-448B-B3F6-8270B299A793}">
       <formula1>"外部立项,外部非立项,内部立项,内部非立项"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式说明" prompt="请按照“YYYY/MM/DD”格式填写" sqref="J2:K1048576" xr:uid="{CC0268D6-5699-42C0-A69F-2E52E2EF8A63}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="格式说明" prompt="请按照“YYYY/MM/DD”格式填写" sqref="L2:M1048576" xr:uid="{CC0268D6-5699-42C0-A69F-2E52E2EF8A63}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{72108AEA-1119-43E8-AD33-5A4D16FB874C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{72108AEA-1119-43E8-AD33-5A4D16FB874C}">
       <formula1>中车株洲所主体单元产品线</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{544C4072-FCA8-4E7C-A995-E5B0EFA52F38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{544C4072-FCA8-4E7C-A995-E5B0EFA52F38}">
       <formula1>INDIRECT(INDIRECT("L"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{6A48C38E-1467-4955-B6BD-2D7E5D14352B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{6A48C38E-1467-4955-B6BD-2D7E5D14352B}">
       <formula1>INDIRECT(INDIRECT("M"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{6B963387-B219-44FF-B19F-883CF6BEA4DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{6B963387-B219-44FF-B19F-883CF6BEA4DE}">
       <formula1>INDIRECT(INDIRECT("N"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{75DF502E-0042-4AEF-8A0E-A71DA4AF3E00}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{75DF502E-0042-4AEF-8A0E-A71DA4AF3E00}">
       <formula1>INDIRECT(INDIRECT("O"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{78373C30-E7AB-462E-A284-22671CB33F65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{78373C30-E7AB-462E-A284-22671CB33F65}">
       <formula1>INDIRECT(INDIRECT("P"&amp;ROW()))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{96ACDC2B-06C1-4F0C-A22E-7F5A941424C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{96ACDC2B-06C1-4F0C-A22E-7F5A941424C3}">
       <formula1>"P-产品开发,D-平台研发,R-前瞻技术研究,T-专业技术研究,O-综合技术研究"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{D79D1288-9F09-4A3B-BB2A-F4FD5E7467D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{D79D1288-9F09-4A3B-BB2A-F4FD5E7467D0}">
       <formula1>"I(所级重大),II(所级重点),III(主体重大),IV(主体重点),V(单元[部门]重点),VI(一般)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D5FFF118-8DF1-4741-92E2-CCC8F0FB8C03}">
+      <formula1>"全新开发,变型设计,配置开发"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D1048576" xr:uid="{8A6CA8D1-6A2E-4870-91EF-2A2AC25FABD3}">
+      <formula1>"立项时统一策划的既定任务,基于客户要求临时新增任务,内部自发方案调整新增任务(非客户新增要求),其他-请具体说明"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,38 +1613,38 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1"/>
+    <col min="1" max="1" width="8.21875" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.46484375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.86328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.1328125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="13.796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.1328125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="23.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" style="1" customWidth="1"/>
+    <col min="16" max="19" width="13.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="23.21875" style="1" customWidth="1"/>
     <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.46484375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.86328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.46484375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.44140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="1" customWidth="1"/>
-    <col min="30" max="30" width="23.1328125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="19.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.86328125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.19921875" style="1"/>
+    <col min="32" max="32" width="17.88671875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1632,7 +1652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1640,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
@@ -1648,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1664,7 +1684,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.1</v>
       </c>
@@ -1680,7 +1700,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1694,7 +1714,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -1706,7 +1726,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.4</v>
       </c>
@@ -1716,7 +1736,7 @@
       <c r="C9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.5</v>
       </c>
@@ -1726,11 +1746,11 @@
       <c r="C10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -1765,7 +1785,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.1</v>
       </c>
@@ -1799,7 +1819,7 @@
       <c r="O13" s="7"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.2</v>
       </c>
@@ -1827,7 +1847,7 @@
       <c r="O14" s="7"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.3</v>
       </c>
@@ -1845,7 +1865,7 @@
       <c r="M15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.4</v>
       </c>
@@ -1860,7 +1880,7 @@
       <c r="M16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="G17" s="1" t="s">
@@ -1870,7 +1890,7 @@
       <c r="M17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="G18" s="1" t="s">
@@ -1880,11 +1900,11 @@
       <c r="M18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1952,7 +1972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -2030,7 +2050,7 @@
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.2</v>
       </c>
@@ -2067,7 +2087,7 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4.3</v>
       </c>
@@ -2094,7 +2114,7 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="7"/>
       <c r="K24" s="7"/>
       <c r="O24" s="7"/>
@@ -2111,7 +2131,7 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2123,16 +2143,16 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O26" s="7"/>
       <c r="V26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AG26" s="7"/>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2157,38 +2177,38 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1"/>
+    <col min="1" max="1" width="8.21875" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.46484375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.86328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.1328125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="23.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="23.21875" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.46484375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="21.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.86328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" style="1" customWidth="1"/>
     <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.46484375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="19.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.19921875" style="1"/>
+    <col min="28" max="28" width="17.88671875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2204,7 +2224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
@@ -2212,7 +2232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3</v>
       </c>
@@ -2220,7 +2240,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.4</v>
       </c>
@@ -2228,7 +2248,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.5</v>
       </c>
@@ -2236,7 +2256,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.6</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.7</v>
       </c>
@@ -2252,7 +2272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2278,7 +2298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.1</v>
       </c>
@@ -2304,7 +2324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2324,7 +2344,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2.4</v>
       </c>
@@ -2348,7 +2368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2.5</v>
       </c>
@@ -2357,7 +2377,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2.6</v>
       </c>
@@ -2366,7 +2386,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.7</v>
       </c>
@@ -2375,7 +2395,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.8</v>
       </c>
@@ -2384,7 +2404,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2.9</v>
       </c>
@@ -2393,7 +2413,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2.1</v>
       </c>
@@ -2402,7 +2422,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2.11</v>
       </c>
@@ -2411,7 +2431,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2.12</v>
       </c>
@@ -2420,11 +2440,11 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -2474,7 +2494,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.1</v>
       </c>
@@ -2524,7 +2544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3.2</v>
       </c>
@@ -2562,7 +2582,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.3</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3.4</v>
       </c>
@@ -2602,11 +2622,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -2698,7 +2718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -2790,7 +2810,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4.2</v>
       </c>
@@ -2876,7 +2896,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4.3</v>
       </c>
@@ -2941,7 +2961,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -2982,7 +3002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4.5</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -3025,17 +3045,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4.8</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -3180,7 +3200,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5.2</v>
       </c>
@@ -3245,7 +3265,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5.3</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5.4</v>
       </c>
@@ -3315,7 +3335,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5.5</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5.6</v>
       </c>
@@ -3334,22 +3354,22 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5.8</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6.1</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>6.2</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6.3</v>
       </c>
@@ -3453,32 +3473,32 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6.8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>6.9</v>
       </c>
